--- a/medicine/Enfance/Ben_Clanton/Ben_Clanton.xlsx
+++ b/medicine/Enfance/Ben_Clanton/Ben_Clanton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ben Clanton (né en 1988) est un auteur de bande dessinée pour enfants et illustrateur américain.
 </t>
@@ -511,12 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après des études en anthropologie et science politique, il se dirige finalement vers une carrière dans l'enseignement[1]. Mais son souhait est d'être un auteur de livres pour enfants. Après avoir soumis son travail à plusieurs éditeurs, il est édité pour la première fois en 2012. Il découvre le succès en 2016 avec la publication de Narwhal: Unicorn of the Sea![1].
-Ses livres sont pour des enfants de 6 à 9 ans[1].
-Vie privée
-Il est marié et a un fils[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après des études en anthropologie et science politique, il se dirige finalement vers une carrière dans l'enseignement. Mais son souhait est d'être un auteur de livres pour enfants. Après avoir soumis son travail à plusieurs éditeurs, il est édité pour la première fois en 2012. Il découvre le succès en 2016 avec la publication de Narwhal: Unicorn of the Sea!.
+Ses livres sont pour des enfants de 6 à 9 ans.
 </t>
         </is>
       </c>
@@ -542,10 +554,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est marié et a un fils.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ben_Clanton</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ben_Clanton</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">2013 : Mo's Mustache
 2015 : Something Extraordinary
@@ -564,31 +615,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Ben_Clanton</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ben_Clanton</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Récompense</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2017 : Prix Eisner de la meilleure publication pour petits lecteurs avec Narwhal : Unicorn of the Sea</t>
         </is>
